--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gnai2-Adra2b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gnai2-Adra2b.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>151.7260716666667</v>
+        <v>144.783305</v>
       </c>
       <c r="H2">
-        <v>455.178215</v>
+        <v>434.349915</v>
       </c>
       <c r="I2">
-        <v>0.2700739458961593</v>
+        <v>0.2430046335191003</v>
       </c>
       <c r="J2">
-        <v>0.2783366498663096</v>
+        <v>0.251012682214973</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6707179999999999</v>
+        <v>0.8828746666666666</v>
       </c>
       <c r="N2">
-        <v>2.012154</v>
+        <v>2.648624</v>
       </c>
       <c r="O2">
-        <v>0.05714337887504231</v>
+        <v>0.1024571981254595</v>
       </c>
       <c r="P2">
-        <v>0.0650215975068517</v>
+        <v>0.1036206615207343</v>
       </c>
       <c r="Q2">
-        <v>101.7654073361233</v>
+        <v>127.8255121407733</v>
       </c>
       <c r="R2">
-        <v>915.88866602511</v>
+        <v>1150.42960926696</v>
       </c>
       <c r="S2">
-        <v>0.01543293781462191</v>
+        <v>0.02489757388187115</v>
       </c>
       <c r="T2">
-        <v>0.01809789361901269</v>
+        <v>0.02601010018120934</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>151.7260716666667</v>
+        <v>144.783305</v>
       </c>
       <c r="H3">
-        <v>455.178215</v>
+        <v>434.349915</v>
       </c>
       <c r="I3">
-        <v>0.2700739458961593</v>
+        <v>0.2430046335191003</v>
       </c>
       <c r="J3">
-        <v>0.2783366498663096</v>
+        <v>0.251012682214973</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>0.132616</v>
       </c>
       <c r="O3">
-        <v>0.003766176114200311</v>
+        <v>0.005130008557879844</v>
       </c>
       <c r="P3">
-        <v>0.004285409653022904</v>
+        <v>0.005188262904902204</v>
       </c>
       <c r="Q3">
-        <v>6.707101573382224</v>
+        <v>6.400194258626667</v>
       </c>
       <c r="R3">
-        <v>60.36391416044001</v>
+        <v>57.60174832764</v>
       </c>
       <c r="S3">
-        <v>0.001017146044101942</v>
+        <v>0.00124661584955744</v>
       </c>
       <c r="T3">
-        <v>0.001192786566127139</v>
+        <v>0.001302319787795949</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>151.7260716666667</v>
+        <v>144.783305</v>
       </c>
       <c r="H4">
-        <v>455.178215</v>
+        <v>434.349915</v>
       </c>
       <c r="I4">
-        <v>0.2700739458961593</v>
+        <v>0.2430046335191003</v>
       </c>
       <c r="J4">
-        <v>0.2783366498663096</v>
+        <v>0.251012682214973</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.258457666666667</v>
+        <v>4.552434333333333</v>
       </c>
       <c r="N4">
-        <v>9.775373</v>
+        <v>13.657303</v>
       </c>
       <c r="O4">
-        <v>0.2776118741328243</v>
+        <v>0.528307906041187</v>
       </c>
       <c r="P4">
-        <v>0.3158855478682772</v>
+        <v>0.5343071615484525</v>
       </c>
       <c r="Q4">
-        <v>494.3929814554662</v>
+        <v>659.1164885754716</v>
       </c>
       <c r="R4">
-        <v>4449.536833099195</v>
+        <v>5932.048397179244</v>
       </c>
       <c r="S4">
-        <v>0.07497573427467978</v>
+        <v>0.128381269092782</v>
       </c>
       <c r="T4">
-        <v>0.08792252513484004</v>
+        <v>0.1341178737469459</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>151.7260716666667</v>
+        <v>144.783305</v>
       </c>
       <c r="H5">
-        <v>455.178215</v>
+        <v>434.349915</v>
       </c>
       <c r="I5">
-        <v>0.2700739458961593</v>
+        <v>0.2430046335191003</v>
       </c>
       <c r="J5">
-        <v>0.2783366498663096</v>
+        <v>0.251012682214973</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.2664405</v>
+        <v>0.290258</v>
       </c>
       <c r="N5">
-        <v>8.532881</v>
+        <v>0.580516</v>
       </c>
       <c r="O5">
-        <v>0.3634893143457086</v>
+        <v>0.03368430711210761</v>
       </c>
       <c r="P5">
-        <v>0.2757351345651786</v>
+        <v>0.02271120851558038</v>
       </c>
       <c r="Q5">
-        <v>647.3302570645692</v>
+        <v>42.02451254269</v>
       </c>
       <c r="R5">
-        <v>3883.981542387415</v>
+        <v>252.14707525614</v>
       </c>
       <c r="S5">
-        <v>0.09816899341643494</v>
+        <v>0.008185442705122536</v>
       </c>
       <c r="T5">
-        <v>0.07674719360530786</v>
+        <v>0.005700801365839366</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>151.7260716666667</v>
+        <v>144.783305</v>
       </c>
       <c r="H6">
-        <v>455.178215</v>
+        <v>434.349915</v>
       </c>
       <c r="I6">
-        <v>0.2700739458961593</v>
+        <v>0.2430046335191003</v>
       </c>
       <c r="J6">
-        <v>0.2783366498663096</v>
+        <v>0.251012682214973</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.497636333333334</v>
+        <v>2.847237333333334</v>
       </c>
       <c r="N6">
-        <v>10.492909</v>
+        <v>8.541712</v>
       </c>
       <c r="O6">
-        <v>0.2979892565322244</v>
+        <v>0.3304205801633661</v>
       </c>
       <c r="P6">
-        <v>0.3390723104066696</v>
+        <v>0.3341727055103307</v>
       </c>
       <c r="Q6">
-        <v>530.6826209752707</v>
+        <v>412.2324312393866</v>
       </c>
       <c r="R6">
-        <v>4776.143588777436</v>
+        <v>3710.09188115448</v>
       </c>
       <c r="S6">
-        <v>0.0804791343463207</v>
+        <v>0.08029373198976729</v>
       </c>
       <c r="T6">
-        <v>0.09437625094102184</v>
+        <v>0.08388158713318238</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>82.24887100000001</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H7">
         <v>246.746613</v>
       </c>
       <c r="I7">
-        <v>0.146403824289839</v>
+        <v>0.1380466950572427</v>
       </c>
       <c r="J7">
-        <v>0.150882936320401</v>
+        <v>0.1425959278859072</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.6707179999999999</v>
+        <v>0.8828746666666666</v>
       </c>
       <c r="N7">
-        <v>2.012154</v>
+        <v>2.648624</v>
       </c>
       <c r="O7">
-        <v>0.05714337887504231</v>
+        <v>0.1024571981254595</v>
       </c>
       <c r="P7">
-        <v>0.0650215975068517</v>
+        <v>0.1036206615207343</v>
       </c>
       <c r="Q7">
-        <v>55.165798259378</v>
+        <v>72.61544456783466</v>
       </c>
       <c r="R7">
-        <v>496.492184334402</v>
+        <v>653.539001110512</v>
       </c>
       <c r="S7">
-        <v>0.008366009200149392</v>
+        <v>0.01414387758604481</v>
       </c>
       <c r="T7">
-        <v>0.009810649556077048</v>
+        <v>0.01477588437770062</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>82.24887100000001</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H8">
         <v>246.746613</v>
       </c>
       <c r="I8">
-        <v>0.146403824289839</v>
+        <v>0.1380466950572427</v>
       </c>
       <c r="J8">
-        <v>0.150882936320401</v>
+        <v>0.1425959278859072</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>0.132616</v>
       </c>
       <c r="O8">
-        <v>0.003766176114200311</v>
+        <v>0.005130008557879844</v>
       </c>
       <c r="P8">
-        <v>0.004285409653022904</v>
+        <v>0.005188262904902204</v>
       </c>
       <c r="Q8">
-        <v>3.635838758845334</v>
+        <v>3.635838758845333</v>
       </c>
       <c r="R8">
-        <v>32.72254882960801</v>
+        <v>32.722548829608</v>
       </c>
       <c r="S8">
-        <v>0.000551382586067971</v>
+        <v>0.0007081807270306841</v>
       </c>
       <c r="T8">
-        <v>0.0006465951917838864</v>
+        <v>0.0007398251630405621</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>82.24887100000001</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H9">
         <v>246.746613</v>
       </c>
       <c r="I9">
-        <v>0.146403824289839</v>
+        <v>0.1380466950572427</v>
       </c>
       <c r="J9">
-        <v>0.150882936320401</v>
+        <v>0.1425959278859072</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.258457666666667</v>
+        <v>4.552434333333333</v>
       </c>
       <c r="N9">
-        <v>9.775373</v>
+        <v>13.657303</v>
       </c>
       <c r="O9">
-        <v>0.2776118741328243</v>
+        <v>0.528307906041187</v>
       </c>
       <c r="P9">
-        <v>0.3158855478682772</v>
+        <v>0.5343071615484525</v>
       </c>
       <c r="Q9">
-        <v>268.0044642846277</v>
+        <v>374.4325842183043</v>
       </c>
       <c r="R9">
-        <v>2412.040178561649</v>
+        <v>3369.893257964738</v>
       </c>
       <c r="S9">
-        <v>0.04064344004131492</v>
+        <v>0.07293116040159817</v>
       </c>
       <c r="T9">
-        <v>0.04766173900354425</v>
+        <v>0.07619002547708689</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>82.24887100000001</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H10">
         <v>246.746613</v>
       </c>
       <c r="I10">
-        <v>0.146403824289839</v>
+        <v>0.1380466950572427</v>
       </c>
       <c r="J10">
-        <v>0.150882936320401</v>
+        <v>0.1425959278859072</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.2664405</v>
+        <v>0.290258</v>
       </c>
       <c r="N10">
-        <v>8.532881</v>
+        <v>0.580516</v>
       </c>
       <c r="O10">
-        <v>0.3634893143457086</v>
+        <v>0.03368430711210761</v>
       </c>
       <c r="P10">
-        <v>0.2757351345651786</v>
+        <v>0.02271120851558038</v>
       </c>
       <c r="Q10">
-        <v>350.9099143136755</v>
+        <v>23.873392798718</v>
       </c>
       <c r="R10">
-        <v>2105.459485882053</v>
+        <v>143.240356792308</v>
       </c>
       <c r="S10">
-        <v>0.05321622570870317</v>
+        <v>0.00465000727211963</v>
       </c>
       <c r="T10">
-        <v>0.04160372674989503</v>
+        <v>0.003238525851689501</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>82.24887100000001</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H11">
         <v>246.746613</v>
       </c>
       <c r="I11">
-        <v>0.146403824289839</v>
+        <v>0.1380466950572427</v>
       </c>
       <c r="J11">
-        <v>0.150882936320401</v>
+        <v>0.1425959278859072</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.497636333333334</v>
+        <v>2.847237333333334</v>
       </c>
       <c r="N11">
-        <v>10.492909</v>
+        <v>8.541712</v>
       </c>
       <c r="O11">
-        <v>0.2979892565322244</v>
+        <v>0.3304205801633661</v>
       </c>
       <c r="P11">
-        <v>0.3390723104066696</v>
+        <v>0.3341727055103307</v>
       </c>
       <c r="Q11">
-        <v>287.6766395852464</v>
+        <v>234.1820561357173</v>
       </c>
       <c r="R11">
-        <v>2589.089756267218</v>
+        <v>2107.638505221456</v>
       </c>
       <c r="S11">
-        <v>0.04362676675360355</v>
+        <v>0.04561346907044941</v>
       </c>
       <c r="T11">
-        <v>0.05116022581910077</v>
+        <v>0.04765166701638961</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>123.444321</v>
+        <v>163.8590903333333</v>
       </c>
       <c r="H12">
-        <v>370.332963</v>
+        <v>491.577271</v>
       </c>
       <c r="I12">
-        <v>0.2197321429647646</v>
+        <v>0.2750214756820535</v>
       </c>
       <c r="J12">
-        <v>0.2264546783208506</v>
+        <v>0.284084617144743</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.6707179999999999</v>
+        <v>0.8828746666666666</v>
       </c>
       <c r="N12">
-        <v>2.012154</v>
+        <v>2.648624</v>
       </c>
       <c r="O12">
-        <v>0.05714337887504231</v>
+        <v>0.1024571981254595</v>
       </c>
       <c r="P12">
-        <v>0.0650215975068517</v>
+        <v>0.1036206615207343</v>
       </c>
       <c r="Q12">
-        <v>82.79632809247799</v>
+        <v>144.6670397583449</v>
       </c>
       <c r="R12">
-        <v>745.1669528323019</v>
+        <v>1302.003357825104</v>
       </c>
       <c r="S12">
-        <v>0.01255623709646051</v>
+        <v>0.0281779298227124</v>
       </c>
       <c r="T12">
-        <v>0.01472444494732192</v>
+        <v>0.02943703595640279</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>123.444321</v>
+        <v>163.8590903333333</v>
       </c>
       <c r="H13">
-        <v>370.332963</v>
+        <v>491.577271</v>
       </c>
       <c r="I13">
-        <v>0.2197321429647646</v>
+        <v>0.2750214756820535</v>
       </c>
       <c r="J13">
-        <v>0.2264546783208506</v>
+        <v>0.284084617144743</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>0.132616</v>
       </c>
       <c r="O13">
-        <v>0.003766176114200311</v>
+        <v>0.005130008557879844</v>
       </c>
       <c r="P13">
-        <v>0.004285409653022904</v>
+        <v>0.005188262904902204</v>
       </c>
       <c r="Q13">
-        <v>5.456897357912001</v>
+        <v>7.243445707881779</v>
       </c>
       <c r="R13">
-        <v>49.11207622120801</v>
+        <v>65.19101137093601</v>
       </c>
       <c r="S13">
-        <v>0.0008275499483559444</v>
+        <v>0.001410862523849678</v>
       </c>
       <c r="T13">
-        <v>0.0009704510644483696</v>
+        <v>0.001473905680985415</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>123.444321</v>
+        <v>163.8590903333333</v>
       </c>
       <c r="H14">
-        <v>370.332963</v>
+        <v>491.577271</v>
       </c>
       <c r="I14">
-        <v>0.2197321429647646</v>
+        <v>0.2750214756820535</v>
       </c>
       <c r="J14">
-        <v>0.2264546783208506</v>
+        <v>0.284084617144743</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.258457666666667</v>
+        <v>4.552434333333333</v>
       </c>
       <c r="N14">
-        <v>9.775373</v>
+        <v>13.657303</v>
       </c>
       <c r="O14">
-        <v>0.2776118741328243</v>
+        <v>0.528307906041187</v>
       </c>
       <c r="P14">
-        <v>0.3158855478682772</v>
+        <v>0.5343071615484525</v>
       </c>
       <c r="Q14">
-        <v>402.238094168911</v>
+        <v>745.9577486622348</v>
       </c>
       <c r="R14">
-        <v>3620.142847520199</v>
+        <v>6713.619737960113</v>
       </c>
       <c r="S14">
-        <v>0.06100025201566999</v>
+        <v>0.1452960199339429</v>
       </c>
       <c r="T14">
-        <v>0.07153376012871637</v>
+        <v>0.1517884454261865</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>123.444321</v>
+        <v>163.8590903333333</v>
       </c>
       <c r="H15">
-        <v>370.332963</v>
+        <v>491.577271</v>
       </c>
       <c r="I15">
-        <v>0.2197321429647646</v>
+        <v>0.2750214756820535</v>
       </c>
       <c r="J15">
-        <v>0.2264546783208506</v>
+        <v>0.284084617144743</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.2664405</v>
+        <v>0.290258</v>
       </c>
       <c r="N15">
-        <v>8.532881</v>
+        <v>0.580516</v>
       </c>
       <c r="O15">
-        <v>0.3634893143457086</v>
+        <v>0.03368430711210761</v>
       </c>
       <c r="P15">
-        <v>0.2757351345651786</v>
+        <v>0.02271120851558038</v>
       </c>
       <c r="Q15">
-        <v>526.6678506094005</v>
+        <v>47.56141184197267</v>
       </c>
       <c r="R15">
-        <v>3160.007103656403</v>
+        <v>285.368471051836</v>
       </c>
       <c r="S15">
-        <v>0.07987028598597549</v>
+        <v>0.009263907849299325</v>
       </c>
       <c r="T15">
-        <v>0.06244151119971396</v>
+        <v>0.006451904976043079</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>123.444321</v>
+        <v>163.8590903333333</v>
       </c>
       <c r="H16">
-        <v>370.332963</v>
+        <v>491.577271</v>
       </c>
       <c r="I16">
-        <v>0.2197321429647646</v>
+        <v>0.2750214756820535</v>
       </c>
       <c r="J16">
-        <v>0.2264546783208506</v>
+        <v>0.284084617144743</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.497636333333334</v>
+        <v>2.847237333333334</v>
       </c>
       <c r="N16">
-        <v>10.492909</v>
+        <v>8.541712</v>
       </c>
       <c r="O16">
-        <v>0.2979892565322244</v>
+        <v>0.3304205801633661</v>
       </c>
       <c r="P16">
-        <v>0.3390723104066696</v>
+        <v>0.3341727055103307</v>
       </c>
       <c r="Q16">
-        <v>431.763342273263</v>
+        <v>466.5457194031059</v>
       </c>
       <c r="R16">
-        <v>3885.870080459367</v>
+        <v>4198.911474627952</v>
       </c>
       <c r="S16">
-        <v>0.06547781791830265</v>
+        <v>0.09087275555224919</v>
       </c>
       <c r="T16">
-        <v>0.07678451098064996</v>
+        <v>0.09493332510512524</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>50.0323125</v>
+        <v>57.0238095</v>
       </c>
       <c r="H17">
-        <v>100.064625</v>
+        <v>114.047619</v>
       </c>
       <c r="I17">
-        <v>0.08905802352064279</v>
+        <v>0.09570889357312636</v>
       </c>
       <c r="J17">
-        <v>0.06118845668531954</v>
+        <v>0.06590860906562239</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.6707179999999999</v>
+        <v>0.8828746666666666</v>
       </c>
       <c r="N17">
-        <v>2.012154</v>
+        <v>2.648624</v>
       </c>
       <c r="O17">
-        <v>0.05714337887504231</v>
+        <v>0.1024571981254595</v>
       </c>
       <c r="P17">
-        <v>0.0650215975068517</v>
+        <v>0.1036206615207343</v>
       </c>
       <c r="Q17">
-        <v>33.557572575375</v>
+        <v>50.34487680437599</v>
       </c>
       <c r="R17">
-        <v>201.34543545225</v>
+        <v>302.069260826256</v>
       </c>
       <c r="S17">
-        <v>0.005089076379902521</v>
+        <v>0.009806065071190327</v>
       </c>
       <c r="T17">
-        <v>0.003978571202658276</v>
+        <v>0.006829493671291254</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>50.0323125</v>
+        <v>57.0238095</v>
       </c>
       <c r="H18">
-        <v>100.064625</v>
+        <v>114.047619</v>
       </c>
       <c r="I18">
-        <v>0.08905802352064279</v>
+        <v>0.09570889357312636</v>
       </c>
       <c r="J18">
-        <v>0.06118845668531954</v>
+        <v>0.06590860906562239</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>0.132616</v>
       </c>
       <c r="O18">
-        <v>0.003766176114200311</v>
+        <v>0.005130008557879844</v>
       </c>
       <c r="P18">
-        <v>0.004285409653022904</v>
+        <v>0.005188262904902204</v>
       </c>
       <c r="Q18">
-        <v>2.2116950515</v>
+        <v>2.520756506884</v>
       </c>
       <c r="R18">
-        <v>13.270170309</v>
+        <v>15.124539041304</v>
       </c>
       <c r="S18">
-        <v>0.0003354082009613344</v>
+        <v>0.0004909874430953494</v>
       </c>
       <c r="T18">
-        <v>0.0002622176029328422</v>
+        <v>0.0003419511915288698</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>50.0323125</v>
+        <v>57.0238095</v>
       </c>
       <c r="H19">
-        <v>100.064625</v>
+        <v>114.047619</v>
       </c>
       <c r="I19">
-        <v>0.08905802352064279</v>
+        <v>0.09570889357312636</v>
       </c>
       <c r="J19">
-        <v>0.06118845668531954</v>
+        <v>0.06590860906562239</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>3.258457666666667</v>
+        <v>4.552434333333333</v>
       </c>
       <c r="N19">
-        <v>9.775373</v>
+        <v>13.657303</v>
       </c>
       <c r="O19">
-        <v>0.2776118741328243</v>
+        <v>0.528307906041187</v>
       </c>
       <c r="P19">
-        <v>0.3158855478682772</v>
+        <v>0.5343071615484525</v>
       </c>
       <c r="Q19">
-        <v>163.0281722466875</v>
+        <v>259.5971481852595</v>
       </c>
       <c r="R19">
-        <v>978.1690334801251</v>
+        <v>1557.582889111557</v>
       </c>
       <c r="S19">
-        <v>0.0247235648161308</v>
+        <v>0.05056376515313721</v>
       </c>
       <c r="T19">
-        <v>0.01932854916325651</v>
+        <v>0.0352154418314593</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>50.0323125</v>
+        <v>57.0238095</v>
       </c>
       <c r="H20">
-        <v>100.064625</v>
+        <v>114.047619</v>
       </c>
       <c r="I20">
-        <v>0.08905802352064279</v>
+        <v>0.09570889357312636</v>
       </c>
       <c r="J20">
-        <v>0.06118845668531954</v>
+        <v>0.06590860906562239</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.2664405</v>
+        <v>0.290258</v>
       </c>
       <c r="N20">
-        <v>8.532881</v>
+        <v>0.580516</v>
       </c>
       <c r="O20">
-        <v>0.3634893143457086</v>
+        <v>0.03368430711210761</v>
       </c>
       <c r="P20">
-        <v>0.2757351345651786</v>
+        <v>0.02271120851558038</v>
       </c>
       <c r="Q20">
-        <v>213.4598843586563</v>
+        <v>16.551616897851</v>
       </c>
       <c r="R20">
-        <v>853.8395374346251</v>
+        <v>66.20646759140401</v>
       </c>
       <c r="S20">
-        <v>0.03237163990650244</v>
+        <v>0.003223887764477211</v>
       </c>
       <c r="T20">
-        <v>0.01687180733796218</v>
+        <v>0.001496864163461221</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>50.0323125</v>
+        <v>57.0238095</v>
       </c>
       <c r="H21">
-        <v>100.064625</v>
+        <v>114.047619</v>
       </c>
       <c r="I21">
-        <v>0.08905802352064279</v>
+        <v>0.09570889357312636</v>
       </c>
       <c r="J21">
-        <v>0.06118845668531954</v>
+        <v>0.06590860906562239</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>3.497636333333334</v>
+        <v>2.847237333333334</v>
       </c>
       <c r="N21">
-        <v>10.492909</v>
+        <v>8.541712</v>
       </c>
       <c r="O21">
-        <v>0.2979892565322244</v>
+        <v>0.3304205801633661</v>
       </c>
       <c r="P21">
-        <v>0.3390723104066696</v>
+        <v>0.3341727055103307</v>
       </c>
       <c r="Q21">
-        <v>174.9948340406875</v>
+        <v>162.360319297288</v>
       </c>
       <c r="R21">
-        <v>1049.969004244125</v>
+        <v>974.161915783728</v>
       </c>
       <c r="S21">
-        <v>0.0265383342171457</v>
+        <v>0.03162418814122626</v>
       </c>
       <c r="T21">
-        <v>0.02074731137850973</v>
+        <v>0.02202485820788174</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>154.3429766666667</v>
+        <v>147.8896333333333</v>
       </c>
       <c r="H22">
-        <v>463.02893</v>
+        <v>443.6689</v>
       </c>
       <c r="I22">
-        <v>0.2747320633285943</v>
+        <v>0.2482183021684772</v>
       </c>
       <c r="J22">
-        <v>0.2831372788071194</v>
+        <v>0.2563981636887546</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.6707179999999999</v>
+        <v>0.8828746666666666</v>
       </c>
       <c r="N22">
-        <v>2.012154</v>
+        <v>2.648624</v>
       </c>
       <c r="O22">
-        <v>0.05714337887504231</v>
+        <v>0.1024571981254595</v>
       </c>
       <c r="P22">
-        <v>0.0650215975068517</v>
+        <v>0.1036206615207343</v>
       </c>
       <c r="Q22">
-        <v>103.5206126239133</v>
+        <v>130.5680107326222</v>
       </c>
       <c r="R22">
-        <v>931.6855136152199</v>
+        <v>1175.1120965936</v>
       </c>
       <c r="S22">
-        <v>0.01569911838390798</v>
+        <v>0.02543175176364085</v>
       </c>
       <c r="T22">
-        <v>0.01841003818178177</v>
+        <v>0.02656814733413025</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>154.3429766666667</v>
+        <v>147.8896333333333</v>
       </c>
       <c r="H23">
-        <v>463.02893</v>
+        <v>443.6689</v>
       </c>
       <c r="I23">
-        <v>0.2747320633285943</v>
+        <v>0.2482183021684772</v>
       </c>
       <c r="J23">
-        <v>0.2831372788071194</v>
+        <v>0.2563981636887546</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>0.132616</v>
       </c>
       <c r="O23">
-        <v>0.003766176114200311</v>
+        <v>0.005130008557879844</v>
       </c>
       <c r="P23">
-        <v>0.004285409653022904</v>
+        <v>0.005188262904902204</v>
       </c>
       <c r="Q23">
-        <v>6.822782731208889</v>
+        <v>6.537510538044446</v>
       </c>
       <c r="R23">
-        <v>61.40504458088001</v>
+        <v>58.83759484240001</v>
       </c>
       <c r="S23">
-        <v>0.001034689334713119</v>
+        <v>0.001273362014346693</v>
       </c>
       <c r="T23">
-        <v>0.001213359227730667</v>
+        <v>0.001330261081551409</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>154.3429766666667</v>
+        <v>147.8896333333333</v>
       </c>
       <c r="H24">
-        <v>463.02893</v>
+        <v>443.6689</v>
       </c>
       <c r="I24">
-        <v>0.2747320633285943</v>
+        <v>0.2482183021684772</v>
       </c>
       <c r="J24">
-        <v>0.2831372788071194</v>
+        <v>0.2563981636887546</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.258457666666667</v>
+        <v>4.552434333333333</v>
       </c>
       <c r="N24">
-        <v>9.775373</v>
+        <v>13.657303</v>
       </c>
       <c r="O24">
-        <v>0.2776118741328243</v>
+        <v>0.528307906041187</v>
       </c>
       <c r="P24">
-        <v>0.3158855478682772</v>
+        <v>0.5343071615484525</v>
       </c>
       <c r="Q24">
-        <v>502.9200556156544</v>
+        <v>673.2578443307444</v>
       </c>
       <c r="R24">
-        <v>4526.28050054089</v>
+        <v>6059.320598976699</v>
       </c>
       <c r="S24">
-        <v>0.07626888298502885</v>
+        <v>0.1311356914597268</v>
       </c>
       <c r="T24">
-        <v>0.08943897443792008</v>
+        <v>0.136995375066774</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>154.3429766666667</v>
+        <v>147.8896333333333</v>
       </c>
       <c r="H25">
-        <v>463.02893</v>
+        <v>443.6689</v>
       </c>
       <c r="I25">
-        <v>0.2747320633285943</v>
+        <v>0.2482183021684772</v>
       </c>
       <c r="J25">
-        <v>0.2831372788071194</v>
+        <v>0.2563981636887546</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.2664405</v>
+        <v>0.290258</v>
       </c>
       <c r="N25">
-        <v>8.532881</v>
+        <v>0.580516</v>
       </c>
       <c r="O25">
-        <v>0.3634893143457086</v>
+        <v>0.03368430711210761</v>
       </c>
       <c r="P25">
-        <v>0.2757351345651786</v>
+        <v>0.02271120851558038</v>
       </c>
       <c r="Q25">
-        <v>658.4951265412216</v>
+        <v>42.92614919206667</v>
       </c>
       <c r="R25">
-        <v>3950.97075924733</v>
+        <v>257.5568951524</v>
       </c>
       <c r="S25">
-        <v>0.09986216932809253</v>
+        <v>0.008361061521088913</v>
       </c>
       <c r="T25">
-        <v>0.07807089567229955</v>
+        <v>0.005823112158547215</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>154.3429766666667</v>
+        <v>147.8896333333333</v>
       </c>
       <c r="H26">
-        <v>463.02893</v>
+        <v>443.6689</v>
       </c>
       <c r="I26">
-        <v>0.2747320633285943</v>
+        <v>0.2482183021684772</v>
       </c>
       <c r="J26">
-        <v>0.2831372788071194</v>
+        <v>0.2563981636887546</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>3.497636333333334</v>
+        <v>2.847237333333334</v>
       </c>
       <c r="N26">
-        <v>10.492909</v>
+        <v>8.541712</v>
       </c>
       <c r="O26">
-        <v>0.2979892565322244</v>
+        <v>0.3304205801633661</v>
       </c>
       <c r="P26">
-        <v>0.3390723104066696</v>
+        <v>0.3341727055103307</v>
       </c>
       <c r="Q26">
-        <v>539.8356029841523</v>
+        <v>421.0768852396445</v>
       </c>
       <c r="R26">
-        <v>4858.520426857371</v>
+        <v>3789.6919671568</v>
       </c>
       <c r="S26">
-        <v>0.08186720329685181</v>
+        <v>0.08201643540967395</v>
       </c>
       <c r="T26">
-        <v>0.09600401128738736</v>
+        <v>0.08568126804775174</v>
       </c>
     </row>
   </sheetData>
